--- a/WorckWithCadastr_V6/описание/tabls.xlsx
+++ b/WorckWithCadastr_V6/описание/tabls.xlsx
@@ -19,37 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="129">
-  <si>
-    <t>Rej_Vul Реєстр вулиць</t>
-  </si>
-  <si>
-    <t>Rej_Bud_Adr Реєстр будівельних адрес</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rej_Adr_Poh, Реєстр адрес будівель похідний </t>
-  </si>
-  <si>
-    <t>Rej_Adr_Osnov Реєстр адрес основний</t>
-  </si>
-  <si>
-    <t>Rej_Adm_Raj_Mis Реєстр адміністративних районів міста</t>
-  </si>
-  <si>
-    <t>Grm_Bdl, Громадські будівлі</t>
-  </si>
-  <si>
-    <t>Kvt, Квартал багатоквартирноїї забудови</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obj_Scl_Sft_Ecn Об’єкти соціальної сфери та економіки </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vrb_Bdl_Spr Виробничі будівлі  і споруди </t>
-  </si>
-  <si>
-    <t>Ztl_Bdn, Житлові будинки</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="128">
   <si>
     <t>NAZVA_UKR, Type = esriFieldTypeString, Назва об’єкта українською мовою</t>
   </si>
@@ -135,9 +105,6 @@
     <t>Prymitka, Type = esriFieldTypeString, Примітка</t>
   </si>
   <si>
-    <t xml:space="preserve">Prymitka, Type = esriFieldTypeString, Примітка </t>
-  </si>
-  <si>
     <t>SHAPE.STArea(), Type = esriFieldTypeDouble, SHAPE.STArea()</t>
   </si>
   <si>
@@ -406,13 +373,53 @@
   </si>
   <si>
     <t>KOD_KLS, Type = esriFieldTypeDouble, Код за класифікатором DefaultValue = 17010200, Domain = Dmn_Vrb_Bdl_Spr</t>
+  </si>
+  <si>
+    <t>Rej_Vul 
+Реєстр вулиць</t>
+  </si>
+  <si>
+    <t>Rej_Bud_Adr 
+Реєстр будівельних адрес</t>
+  </si>
+  <si>
+    <t>Rej_Adr_Osnov 
+Реєстр адрес основний</t>
+  </si>
+  <si>
+    <t>Rej_Adm_Raj_Mis 
+Реєстр адміністративних районів міста</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rej_Adr_Poh
+ Реєстр адрес будівель похідний </t>
+  </si>
+  <si>
+    <t>Grm_Bdl 
+Громадські будівлі</t>
+  </si>
+  <si>
+    <t>Kvt 
+Квартал багатоквартирноїї забудови</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obj_Scl_Sft_Ecn 
+Об’єкти соціальної сфери та економіки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrb_Bdl_Spr 
+Виробничі будівлі  і споруди </t>
+  </si>
+  <si>
+    <t>Ztl_Bdn 
+Житлові будинки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,18 +432,24 @@
       <b/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -453,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -476,23 +489,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,711 +869,767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="10" width="19.28515625" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="H28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="F19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
+        <v>30</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A3:J3"/>
   <sortState ref="G21:G35">
     <sortCondition ref="G21"/>
   </sortState>
+  <mergeCells count="10">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:J6"/>
+  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/WorckWithCadastr_V6/описание/tabls.xlsx
+++ b/WorckWithCadastr_V6/описание/tabls.xlsx
@@ -541,13 +541,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -559,13 +559,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -871,14 +871,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="19.28515625" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="10" width="19.28515625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -891,43 +889,43 @@
       <c r="C1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="6" t="s">
         <v>123</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -984,7 +982,7 @@
       <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -996,7 +994,7 @@
       <c r="F5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1171,7 +1169,7 @@
       <c r="E13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1180,10 +1178,10 @@
       <c r="H13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1203,7 +1201,7 @@
       <c r="E14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1212,8 +1210,8 @@
       <c r="H14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1227,13 +1225,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="4" t="s">
         <v>86</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1253,15 +1251,15 @@
       <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1617,16 +1615,16 @@
     <sortCondition ref="G21"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:J6"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:J6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/WorckWithCadastr_V6/описание/tabls.xlsx
+++ b/WorckWithCadastr_V6/описание/tabls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$3:$J$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Лист2!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="128">
   <si>
     <t>NAZVA_UKR, Type = esriFieldTypeString, Назва об’єкта українською мовою</t>
   </si>
@@ -419,7 +420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +452,29 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -466,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -526,11 +550,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -566,6 +634,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -871,7 +978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1429,7 +1538,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1467,7 +1576,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -1615,16 +1724,16 @@
     <sortCondition ref="G21"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:J7"/>
     <mergeCell ref="F8:J8"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1633,13 +1742,743 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="28.140625" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="15" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="15" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="15" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="15" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="15" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" s="15" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" s="15" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" s="15" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" s="15" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="15" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" s="15" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="15" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToWidth="2" fitToHeight="2" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
